--- a/changes/hk416-handguards.xlsx
+++ b/changes/hk416-handguards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAC642-6036-441A-9F00-19777E11B281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F919B08-761F-476D-867E-6204A2F992AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,7 +946,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1031,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E3">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F3">
         <v>-14</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="N3" s="1">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>19.600000000000001</v>
+        <v>18.799999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>0.36</v>
       </c>
       <c r="E4">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F4">
         <v>-18</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="N4" s="1">
         <f>C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>18.200000000000003</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>0.25</v>
       </c>
       <c r="E5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F5">
         <v>-10</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="N5" s="1">
         <f>C5-D5*20-E5*0.8-F5*0.6-H5*5+I5*10+J5/300</f>
-        <v>20</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>0.34</v>
       </c>
       <c r="E6">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F6">
         <v>-15</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6" si="0">C6-D6*20-E6*0.8-F6*0.6-H6*5+I6*10+J6/300</f>
-        <v>19.600000000000001</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
